--- a/backend/src/uploads/file/TemplateTambahSiswa.xlsx
+++ b/backend/src/uploads/file/TemplateTambahSiswa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E986A9-FCD9-4721-98D5-BE294F73207E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E7D8DF-47AA-4AF5-A944-BD6F5A2F55C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,17 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
-  <si>
-    <t>213123</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Laki-Laki</t>
   </si>
   <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
     <t>Islam</t>
   </si>
   <si>
@@ -35,15 +29,9 @@
     <t>21312312</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
-    <t>tess</t>
-  </si>
-  <si>
     <t>tahunMasuk</t>
   </si>
   <si>
@@ -69,6 +57,24 @@
   </si>
   <si>
     <t>alamat</t>
+  </si>
+  <si>
+    <t>jakarta</t>
+  </si>
+  <si>
+    <t>Scholary</t>
+  </si>
+  <si>
+    <t>kelas</t>
+  </si>
+  <si>
+    <t>namaKelas</t>
+  </si>
+  <si>
+    <t>Alfa</t>
+  </si>
+  <si>
+    <t>18-09-2024</t>
   </si>
 </sst>
 </file>
@@ -145,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -154,9 +160,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,80 +514,93 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>202043501579</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="E2" s="5">
+        <v>45553</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>21312312</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>12312399999</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>6</v>
+      <c r="L2" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>